--- a/Data/usuarios.xlsx
+++ b/Data/usuarios.xlsx
@@ -75,36 +75,6 @@
     <t>daniel desde el excel</t>
   </si>
   <si>
-    <t>micorreo10@gmail.com</t>
-  </si>
-  <si>
-    <t>micorreo11@gmail.com</t>
-  </si>
-  <si>
-    <t>micorreo12@gmail.com</t>
-  </si>
-  <si>
-    <t>micorreo13@gmail.com</t>
-  </si>
-  <si>
-    <t>micorreo14@gmail.com</t>
-  </si>
-  <si>
-    <t>micorreo15@gmail.com</t>
-  </si>
-  <si>
-    <t>micorreo16@gmail.com</t>
-  </si>
-  <si>
-    <t>micorreo17@gmail.com</t>
-  </si>
-  <si>
-    <t>micorreo18@gmail.com</t>
-  </si>
-  <si>
-    <t>micorreo19@gmail.com</t>
-  </si>
-  <si>
     <t>abc124</t>
   </si>
   <si>
@@ -112,6 +82,36 @@
   </si>
   <si>
     <t>abc126</t>
+  </si>
+  <si>
+    <t>micorreo20@gmail.com</t>
+  </si>
+  <si>
+    <t>micorreo21@gmail.com</t>
+  </si>
+  <si>
+    <t>micorreo22@gmail.com</t>
+  </si>
+  <si>
+    <t>micorreo23@gmail.com</t>
+  </si>
+  <si>
+    <t>micorreo24@gmail.com</t>
+  </si>
+  <si>
+    <t>micorreo25@gmail.com</t>
+  </si>
+  <si>
+    <t>micorreo26@gmail.com</t>
+  </si>
+  <si>
+    <t>micorreo27@gmail.com</t>
+  </si>
+  <si>
+    <t>micorreo28@gmail.com</t>
+  </si>
+  <si>
+    <t>micorreo29@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -158,9 +158,10 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -456,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:K11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -513,7 +514,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -548,7 +549,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -583,7 +584,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -618,7 +619,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -653,7 +654,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -688,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -723,7 +724,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -758,10 +759,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F9">
         <v>985271742</v>
@@ -793,10 +794,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F10">
         <v>985271743</v>
@@ -828,10 +829,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F11">
         <v>985271744</v>
@@ -852,23 +853,12 @@
         <v>17</v>
       </c>
     </row>
+    <row r="13" spans="1:11">
+      <c r="E13" s="2"/>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3:D7" r:id="rId2" display="micorreo10@gmail.com"/>
-    <hyperlink ref="D3" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4"/>
-    <hyperlink ref="D5" r:id="rId5"/>
-    <hyperlink ref="D6" r:id="rId6"/>
-    <hyperlink ref="D7" r:id="rId7"/>
-    <hyperlink ref="D8" r:id="rId8"/>
-    <hyperlink ref="D9:D10" r:id="rId9" display="micorreo10@gmail.com"/>
-    <hyperlink ref="D9" r:id="rId10"/>
-    <hyperlink ref="D10" r:id="rId11"/>
-    <hyperlink ref="D11" r:id="rId12"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Data/usuarios.xlsx
+++ b/Data/usuarios.xlsx
@@ -84,54 +84,47 @@
     <t>abc126</t>
   </si>
   <si>
-    <t>micorreo20@gmail.com</t>
-  </si>
-  <si>
-    <t>micorreo21@gmail.com</t>
-  </si>
-  <si>
-    <t>micorreo22@gmail.com</t>
-  </si>
-  <si>
-    <t>micorreo23@gmail.com</t>
-  </si>
-  <si>
-    <t>micorreo24@gmail.com</t>
-  </si>
-  <si>
-    <t>micorreo25@gmail.com</t>
-  </si>
-  <si>
-    <t>micorreo26@gmail.com</t>
-  </si>
-  <si>
-    <t>micorreo27@gmail.com</t>
-  </si>
-  <si>
-    <t>micorreo28@gmail.com</t>
-  </si>
-  <si>
-    <t>micorreo29@gmail.com</t>
+    <t>micorreo30@gmail.com</t>
+  </si>
+  <si>
+    <t>micorreo31@gmail.com</t>
+  </si>
+  <si>
+    <t>micorreo32@gmail.com</t>
+  </si>
+  <si>
+    <t>micorreo33@gmail.com</t>
+  </si>
+  <si>
+    <t>micorreo34@gmail.com</t>
+  </si>
+  <si>
+    <t>micorreo35@gmail.com</t>
+  </si>
+  <si>
+    <t>micorreo36@gmail.com</t>
+  </si>
+  <si>
+    <t>micorreo37@gmail.com</t>
+  </si>
+  <si>
+    <t>micorreo38@gmail.com</t>
+  </si>
+  <si>
+    <t>micorreo39@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,20 +144,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,7 +447,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -513,7 +500,7 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2" t="s">
@@ -548,7 +535,7 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
       <c r="E3" t="s">
@@ -583,7 +570,7 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
@@ -618,7 +605,7 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="s">
@@ -653,7 +640,7 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6" t="s">
@@ -688,7 +675,7 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7" t="s">
@@ -723,7 +710,7 @@
       <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>28</v>
       </c>
       <c r="E8" t="s">
@@ -758,7 +745,7 @@
       <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>29</v>
       </c>
       <c r="E9" t="s">
@@ -793,7 +780,7 @@
       <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>30</v>
       </c>
       <c r="E10" t="s">
@@ -828,7 +815,7 @@
       <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>31</v>
       </c>
       <c r="E11" t="s">
@@ -854,7 +841,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="E13" s="2"/>
+      <c r="E13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
